--- a/spliced/struggle/2023-04-06_18-19-06/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-19-06/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.451793313026428</v>
+        <v>2.571562051773072</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.718138635158539</v>
+        <v>-5.523353099822998</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.555151760578156</v>
+        <v>-4.892651081085205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.312116026878357</v>
+        <v>2.563363254070282</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.115874052047729</v>
+        <v>-5.564052700996399</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.913362622261047</v>
+        <v>-4.925167679786682</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.11747863888741</v>
+        <v>2.571200489997864</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.436717748641967</v>
+        <v>-5.45090651512146</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.15502381324769</v>
+        <v>-4.94497549533844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.307996869087219</v>
+        <v>2.582025349140167</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.476139068603516</v>
+        <v>-5.429405391216278</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.757482767105103</v>
+        <v>-4.891633093357086</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.280841529369356</v>
+        <v>2.521161556243896</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.743481069803241</v>
+        <v>-5.436496257781982</v>
       </c>
       <c r="C6" t="n">
-        <v>2.116865754127498</v>
+        <v>-4.74793529510498</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.148419260978671</v>
+        <v>2.451793313026428</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.571187555789954</v>
+        <v>-5.718138635158539</v>
       </c>
       <c r="C7" t="n">
-        <v>3.019693136215206</v>
+        <v>-4.555151760578156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.23933637142183</v>
+        <v>4.312116026878357</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.058503150939933</v>
+        <v>-5.115874052047729</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1314393877982891</v>
+        <v>-7.913362622261047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.029654502868652</v>
+        <v>3.11747863888741</v>
       </c>
       <c r="B9" t="n">
-        <v>-12.30031204223633</v>
+        <v>-5.436717748641967</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.83510589599609</v>
+        <v>-5.15502381324769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.211387872695933</v>
+        <v>3.307996869087219</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.499476730823506</v>
+        <v>-5.476139068603516</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.533813059329978</v>
+        <v>-0.757482767105103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.101414084434511</v>
+        <v>4.280841529369356</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.493300497531889</v>
+        <v>-4.743481069803241</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.406978726387027</v>
+        <v>2.116865754127498</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.497859179973603</v>
+        <v>1.148419260978671</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.212260961532593</v>
+        <v>-4.571187555789954</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.54216539859774</v>
+        <v>3.019693136215206</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.64927089214325</v>
+        <v>-5.23933637142183</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.43125307559967</v>
+        <v>-7.058503150939933</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.658325910568239</v>
+        <v>-0.1314393877982891</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.025534451007847</v>
+        <v>5.029654502868652</v>
       </c>
       <c r="B14" t="n">
-        <v>-11.15312564373016</v>
+        <v>-12.30031204223633</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.677394092082968</v>
+        <v>-12.83510589599609</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.654657959938065</v>
+        <v>-1.211387872695933</v>
       </c>
       <c r="B15" t="n">
-        <v>-9.341210365295419</v>
+        <v>-5.499476730823506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4500467777252322</v>
+        <v>-6.533813059329978</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.828480809926987</v>
+        <v>-3.101414084434511</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.927687406539919</v>
+        <v>-3.493300497531889</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.06907200813294</v>
+        <v>-7.406978726387027</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.216025352478028</v>
+        <v>-3.497859179973603</v>
       </c>
       <c r="B17" t="n">
-        <v>-4.024631500244141</v>
+        <v>-3.212260961532593</v>
       </c>
       <c r="C17" t="n">
-        <v>4.593602180480957</v>
+        <v>-10.54216539859774</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.550865292549141</v>
+        <v>-1.64927089214325</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.700099587440493</v>
+        <v>-7.43125307559967</v>
       </c>
       <c r="C18" t="n">
-        <v>3.356234908103941</v>
+        <v>-8.658325910568239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.655673027038576</v>
+        <v>-1.025534451007847</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.905611395835868</v>
+        <v>-11.15312564373016</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.318085908889795</v>
+        <v>-2.677394092082968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.430848956108096</v>
+        <v>-1.654657959938065</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.578429281711582</v>
+        <v>-9.341210365295419</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.265119194984431</v>
+        <v>0.4500467777252322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.828480809926987</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-5.927687406539919</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.06907200813294</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.216025352478028</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-4.024631500244141</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.593602180480957</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.550865292549141</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-5.700099587440493</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.356234908103941</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.655673027038576</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-3.905611395835868</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.318085908889795</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.430848956108096</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.578429281711582</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.265119194984431</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>-2.407764434814463</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>-1.766093373298651</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>-8.389460563659659</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-2.611050009727472</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.573673054575919</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-8.294337868690496</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.61596310138703</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.870795279741297</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-8.901223957538587</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.079445004463198</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-5.368536770343783</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.524431616067886</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.3216586112976074</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-3.676267147064209</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.865855693817138</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.706132471561434</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-4.47040206193924</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.197765350341799</v>
       </c>
     </row>
   </sheetData>
